--- a/project_data_wbs.xlsx
+++ b/project_data_wbs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1180,61 +1180,61 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Phase</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>User Needs Analysis</t>
+          <t>Plastic Research</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>Materials Research</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1.1.1</t>
+          <t>1.1.1.1.1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Target Audience Research</t>
+          <t>Plastic Types</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>User Needs Analysis</t>
+          <t>Plastic Research</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1243,23 +1243,23 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>ABS Analysis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Target Audience Research</t>
+          <t>Plastic Types</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>1.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1268,23 +1268,23 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Usage Patterns</t>
+          <t>Impact Resistance</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Target Audience Research</t>
+          <t>ABS Analysis</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>1.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1293,23 +1293,23 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Purchase Behavior</t>
+          <t>Heat Resistance</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Target Audience Research</t>
+          <t>ABS Analysis</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1.1.1</t>
+          <t>1.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1318,23 +1318,23 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>User Pain Points</t>
+          <t>Cost Analysis</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>User Needs Analysis</t>
+          <t>ABS Analysis</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1343,23 +1343,23 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Current Solutions</t>
+          <t>Polycarbonate Study</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>User Pain Points</t>
+          <t>Plastic Types</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>1.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1368,23 +1368,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Unmet Needs</t>
+          <t>Durability Tests</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>User Pain Points</t>
+          <t>Polycarbonate Study</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>1.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1393,37 +1393,37 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feature Requests</t>
+          <t>UV Resistance</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>User Pain Points</t>
+          <t>Polycarbonate Study</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Phase</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Manufacturing Process</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>Polycarbonate Study</t>
         </is>
       </c>
     </row>
@@ -1443,12 +1443,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Component Sourcing</t>
+          <t>User Needs Analysis</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Market Analysis</t>
         </is>
       </c>
     </row>
@@ -1468,12 +1468,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Battery Procurement</t>
+          <t>Target Audience Research</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Component Sourcing</t>
+          <t>User Needs Analysis</t>
         </is>
       </c>
     </row>
@@ -1493,12 +1493,1962 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>Demographics</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Target Audience Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Usage Patterns</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Target Audience Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Purchase Behavior</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Target Audience Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>User Pain Points</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>User Needs Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Current Solutions</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>User Pain Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Unmet Needs</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>User Pain Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Feature Requests</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>User Pain Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Build</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1.1.1</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Component Sourcing</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Build</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Battery Procurement</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Component Sourcing</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>Supplier Selection</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Battery Procurement</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Quality Verification</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Battery Procurement</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Cost Negotiation</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Battery Procurement</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Electronics Components</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Component Sourcing</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Component List</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Electronics Components</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Supplier Quotes</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Electronics Components</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Lead Time Analysis</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Electronics Components</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1.1.1</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Prototype Development</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Build</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Initial Prototype</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Prototype Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3D Printing</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Initial Prototype</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Initial Prototype</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>4</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Initial Prototype</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Final Prototype</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Prototype Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Production Methods</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Final Prototype</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Quality Control</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Final Prototype</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Documentation</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Final Prototype</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1.1.1</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Quality Assurance</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Component Testing</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Quality Assurance</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Electrical Testing</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Component Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Power System</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Electrical Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Battery Performance</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Power System</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Charge Cycles</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Battery Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Voltage Stability</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Battery Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Temperature Profile</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Battery Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Circuit Validation</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Power System</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Signal Integrity</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Circuit Validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>EMI Testing</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Circuit Validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Power Efficiency</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Circuit Validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Control System</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Electrical Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MCU Validation</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Control System</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>7</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Clock Stability</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MCU Validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Memory Tests</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MCU Validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Peripheral Tests</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MCU Validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1.1.1</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Digital Marketing</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Social Media</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Digital Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Platform Strategy</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Social Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Instagram Campaign</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Platform Strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Content Creation</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Instagram Campaign</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Photo Shoots</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Content Creation</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Video Production</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Content Creation</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>7</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Story Templates</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Content Creation</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Influencer Program</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Instagram Campaign</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Selection Criteria</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Influencer Program</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>7</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Engagement Metrics</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Influencer Program</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>7</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ROI Analysis</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Influencer Program</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>5</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>TikTok Strategy</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Platform Strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Trend Analysis</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>TikTok Strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Content Calendar</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>TikTok Strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Performance Metrics</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>TikTok Strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Production &amp;amp; Deployment</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1.1.1</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Manufacturing Setup</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Production &amp;amp; Deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Assembly Line Design</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Manufacturing Setup</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Automation Systems</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Assembly Line Design</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Robot Integration</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Automation Systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>6</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>End Effector Design</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Robot Integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>7</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Gripper Mechanism</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>End Effector Design</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>7</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Sensor Integration</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>End Effector Design</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>7</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Control Software</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>End Effector Design</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>6</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Motion Planning</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Robot Integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>7</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Path Optimization</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Motion Planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>7</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Collision Avoidance</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Motion Planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>7</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Speed Control</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Motion Planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Vision System</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Automation Systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>6</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Camera Setup</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Vision System</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>7</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Lighting Design</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Camera Setup</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>7</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Image Processing</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Camera Setup</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>7</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Subtask</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Quality Checks</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Camera Setup</t>
         </is>
       </c>
     </row>

--- a/project_data_wbs.xlsx
+++ b/project_data_wbs.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>SelfiePod</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>SelfiePod</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>SelfiePod</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>SelfiePod</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>SelfiePod</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>SelfiePod</t>
         </is>
       </c>
     </row>

--- a/project_data_wbs.xlsx
+++ b/project_data_wbs.xlsx
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -505,7 +505,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.1.1</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -530,7 +530,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>1.1.1</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -538,7 +538,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -563,7 +563,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>1.1.1.1.1</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -588,7 +588,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -605,7 +605,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -630,7 +630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -655,7 +655,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.1.1.3</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -705,7 +705,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -755,7 +755,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.1.2.2</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -780,7 +780,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.1.2.3</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -805,7 +805,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>1.1.1.1.2</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -813,7 +813,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -830,7 +830,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.2.1.1</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -880,7 +880,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.2.1.2</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -905,7 +905,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>1.1.1.1.2.1.3</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -930,7 +930,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>1.1.1.2</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -938,7 +938,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -955,7 +955,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>1.1.1.2.1</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -980,7 +980,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>1.1.1.2.2</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1005,7 +1005,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>1.1.1.2.3</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1030,7 +1030,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>1.1.1.3</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1055,7 +1055,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>1.1.1.3.1</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1080,7 +1080,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>1.1.1.3.2</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1105,7 +1105,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>1.1.1.3.3</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1130,7 +1130,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>1.1.1.4</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1155,7 +1155,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>1.1.1.4.1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1180,7 +1180,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>1.1.2</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1205,7 +1205,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>1.1.2.1</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1230,7 +1230,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>1.1.2.1.1</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1255,7 +1255,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>1.1.2.1.1.1</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1280,7 +1280,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>1.1.2.1.1.2</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1305,7 +1305,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>1.1.2.1.1.3</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1330,7 +1330,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>1.1.2.1.2</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1355,7 +1355,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>1.1.2.1.2.1</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1380,7 +1380,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>1.1.2.1.2.2</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1405,7 +1405,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>1.1.2.1.2.3</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1430,7 +1430,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1.1.1</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1455,7 +1455,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>1.2.1</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>1.2.1.1</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1505,7 +1505,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>1.2.1.2</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1530,7 +1530,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>1.2.1.3</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1555,7 +1555,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>1.2.2</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1580,7 +1580,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>1.2.2.1</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1605,7 +1605,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>1.2.2.2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1630,7 +1630,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>1.2.2.3</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1655,7 +1655,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1680,7 +1680,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1.1.1</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1705,7 +1705,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>2.1.1</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1730,7 +1730,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.1.1.1</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1755,7 +1755,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.1.1.2</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1780,7 +1780,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.1.1.3</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1805,7 +1805,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>2.1.2</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1830,7 +1830,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.1.2.1</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1855,7 +1855,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.1.2.2</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1880,7 +1880,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.1.2.3</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1905,7 +1905,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1.1.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1930,7 +1930,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>2.2.1</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1955,7 +1955,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.2.1.1</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1980,7 +1980,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.2.1.2</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2005,7 +2005,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.2.1.3</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2030,7 +2030,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>2.2.2</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2055,7 +2055,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.2.2.1</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2080,7 +2080,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.2.2.2</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2105,7 +2105,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>2.2.2.3</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2130,7 +2130,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2155,7 +2155,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1.1.1</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2180,7 +2180,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>3.1.1</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>3.1.1.1</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>3.1.1.1.1</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2255,7 +2255,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2280,7 +2280,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2305,7 +2305,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2330,7 +2330,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.1.1.3</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2355,7 +2355,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2405,7 +2405,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.1.2.2</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2430,7 +2430,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.1.2.3</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2455,7 +2455,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>3.1.1.1.2</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2480,7 +2480,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.2.1.1</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2530,7 +2530,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.2.1.2</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2555,7 +2555,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>3.1.1.1.2.1.3</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2580,7 +2580,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2605,7 +2605,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1.1.1</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2630,7 +2630,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>4.1.1</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2655,7 +2655,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>4.1.1.1</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>4.1.1.1.1</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2705,7 +2705,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>4.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2730,7 +2730,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>4.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2755,7 +2755,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>4.1.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2780,7 +2780,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>4.1.1.1.1.1.3</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2805,7 +2805,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>4.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2830,7 +2830,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>4.1.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2855,7 +2855,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>4.1.1.1.1.2.2</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2880,7 +2880,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>4.1.1.1.1.2.3</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2905,7 +2905,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>4.1.1.1.2</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2930,7 +2930,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>4.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2955,7 +2955,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>4.1.1.1.2.2</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2980,7 +2980,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>4.1.1.1.2.3</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3005,7 +3005,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3030,7 +3030,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1.1.1</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3055,7 +3055,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>5.1.1</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3080,7 +3080,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1.1.1.1.1</t>
+          <t>5.1.1.1</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3105,7 +3105,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>5.1.1.1.1</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3130,7 +3130,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3155,7 +3155,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3180,7 +3180,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3205,7 +3205,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.1.1.3</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3230,7 +3230,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3255,7 +3255,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3280,7 +3280,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.1.2.2</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3305,7 +3305,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.1.2.3</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3330,7 +3330,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1</t>
+          <t>5.1.1.1.2</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3355,7 +3355,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3380,7 +3380,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.2.1.1</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3405,7 +3405,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.2.1.2</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3430,7 +3430,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1.1.1.1.1.1.1.1</t>
+          <t>5.1.1.1.2.1.3</t>
         </is>
       </c>
       <c r="B121" t="n">

--- a/project_data_wbs.xlsx
+++ b/project_data_wbs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,7 +805,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.1.1.1.2</t>
+          <t>1.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -818,7 +818,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LiFePO4</t>
+          <t>Safety Features</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -830,7 +830,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.1.1.1.2.1</t>
+          <t>1.1.1.1.2.1.1</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -838,28 +838,28 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Thermal Management</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Safety Features</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>LiFePO4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.1.1.1.2.1.1</t>
+          <t>1.1.1.1.2.1.2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Thermal Management</t>
+          <t>Overcharge Protection</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -880,11 +880,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.1.1.1.2.1.2</t>
+          <t>1.1.1.1.2.1.3</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Overcharge Protection</t>
+          <t>Short Circuit Prevention</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -905,57 +905,57 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.1.1.1.2.1.3</t>
+          <t>1.1.1.2</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Short Circuit Prevention</t>
+          <t>Battery Capacity</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Safety Features</t>
+          <t>Battery Research</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.1.1.2</t>
+          <t>1.1.1.2.1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Power Requirements</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Battery Capacity</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Battery Research</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.1.1.2.1</t>
+          <t>1.1.1.2.2</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -968,7 +968,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Power Requirements</t>
+          <t>Usage Duration</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -980,7 +980,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.1.1.2.2</t>
+          <t>1.1.1.2.3</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Usage Duration</t>
+          <t>Size Constraints</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1005,57 +1005,57 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1.1.1.2.3</t>
+          <t>1.1.1.3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Size Constraints</t>
+          <t>Battery Safety</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Battery Capacity</t>
+          <t>Battery Research</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1.1.1.3</t>
+          <t>1.1.1.3.1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Temperature Control</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Battery Safety</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Battery Research</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1.1.1.3.1</t>
+          <t>1.1.1.3.2</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Temperature Control</t>
+          <t>Protection Circuits</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1080,7 +1080,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1.1.1.3.2</t>
+          <t>1.1.1.3.3</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Protection Circuits</t>
+          <t>Certification Requirements</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1105,11 +1105,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1.1.1.3.3</t>
+          <t>1.1.1.4.1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1118,23 +1118,23 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Certification Requirements</t>
+          <t>Vendor Selection</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Battery Safety</t>
+          <t>Battery Research</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1.1.1.4</t>
+          <t>1.1.2.1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1143,94 +1143,94 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Battery Suppliers</t>
+          <t>Plastic Types</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Battery Research</t>
+          <t>Materials Research</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1.1.1.4.1</t>
+          <t>1.1.2.1.1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Vendor Selection</t>
+          <t>ABS Analysis</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Battery Suppliers</t>
+          <t>Plastic Types</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1.1.2</t>
+          <t>1.1.2.1.1.1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Plastic Research</t>
+          <t>Impact Resistance</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Materials Research</t>
+          <t>ABS Analysis</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1.1.2.1</t>
+          <t>1.1.2.1.1.2</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Plastic Types</t>
+          <t>Heat Resistance</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Plastic Research</t>
+          <t>ABS Analysis</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1.1.2.1.1</t>
+          <t>1.1.2.1.1.3</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1238,53 +1238,53 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Cost Analysis</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>ABS Analysis</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Plastic Types</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1.1.2.1.1.1</t>
+          <t>1.1.2.1.2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Impact Resistance</t>
+          <t>Polycarbonate Study</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ABS Analysis</t>
+          <t>Plastic Types</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1.1.2.1.1.2</t>
+          <t>1.1.2.1.2.1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1293,23 +1293,23 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Heat Resistance</t>
+          <t>Durability Tests</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ABS Analysis</t>
+          <t>Polycarbonate Study</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1.1.2.1.1.3</t>
+          <t>1.1.2.1.2.2</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1318,19 +1318,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cost Analysis</t>
+          <t>UV Resistance</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ABS Analysis</t>
+          <t>Polycarbonate Study</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1.1.2.1.2</t>
+          <t>1.1.2.1.2.3</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1338,78 +1338,78 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Manufacturing Process</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Polycarbonate Study</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Plastic Types</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1.1.2.1.2.1</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Durability Tests</t>
+          <t>User Needs Analysis</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Polycarbonate Study</t>
+          <t>Market Analysis</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1.1.2.1.2.2</t>
+          <t>1.2.1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>UV Resistance</t>
+          <t>Target Audience Research</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Polycarbonate Study</t>
+          <t>User Needs Analysis</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1.1.2.1.2.3</t>
+          <t>1.2.1.1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1418,94 +1418,94 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Manufacturing Process</t>
+          <t>Demographics</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Polycarbonate Study</t>
+          <t>Target Audience Research</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.2.1.2</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>User Needs Analysis</t>
+          <t>Usage Patterns</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Market Analysis</t>
+          <t>Target Audience Research</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1.2.1</t>
+          <t>1.2.1.3</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>Purchase Behavior</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Target Audience Research</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>User Needs Analysis</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1.2.1.1</t>
+          <t>1.2.2</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>User Pain Points</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Target Audience Research</t>
+          <t>User Needs Analysis</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1.2.1.2</t>
+          <t>1.2.2.1</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1518,19 +1518,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Usage Patterns</t>
+          <t>Current Solutions</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Target Audience Research</t>
+          <t>User Pain Points</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1.2.1.3</t>
+          <t>1.2.2.2</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1543,219 +1543,219 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Purchase Behavior</t>
+          <t>Unmet Needs</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Target Audience Research</t>
+          <t>User Pain Points</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1.2.2</t>
+          <t>1.2.2.3</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Feature Requests</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>User Pain Points</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>User Needs Analysis</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1.2.2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Phase</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Current Solutions</t>
+          <t>Build</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>User Pain Points</t>
+          <t>SelfiePod</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1.2.2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Unmet Needs</t>
+          <t>Component Sourcing</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>User Pain Points</t>
+          <t>Build</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1.2.2.3</t>
+          <t>2.1.1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Feature Requests</t>
+          <t>Battery Procurement</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>User Pain Points</t>
+          <t>Component Sourcing</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1.1.1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Phase</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Supplier Selection</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SelfiePod</t>
+          <t>Battery Procurement</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.1.1.2</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Component Sourcing</t>
+          <t>Quality Verification</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Battery Procurement</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2.1.1</t>
+          <t>2.1.1.3</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>Cost Negotiation</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Battery Procurement</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Component Sourcing</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2.1.1.1</t>
+          <t>2.1.2</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Supplier Selection</t>
+          <t>Electronics Components</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Battery Procurement</t>
+          <t>Component Sourcing</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2.1.1.2</t>
+          <t>2.1.2.1</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1768,19 +1768,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Quality Verification</t>
+          <t>Component List</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Battery Procurement</t>
+          <t>Electronics Components</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2.1.1.3</t>
+          <t>2.1.2.2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1793,94 +1793,94 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cost Negotiation</t>
+          <t>Supplier Quotes</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Battery Procurement</t>
+          <t>Electronics Components</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2.1.2</t>
+          <t>2.1.2.3</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>Lead Time Analysis</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Electronics Components</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Component Sourcing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2.1.2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Component List</t>
+          <t>Prototype Development</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Electronics Components</t>
+          <t>Build</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2.1.2.2</t>
+          <t>2.2.1</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Supplier Quotes</t>
+          <t>Initial Prototype</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Electronics Components</t>
+          <t>Prototype Development</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2.1.2.3</t>
+          <t>2.2.1.1</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1893,94 +1893,94 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Lead Time Analysis</t>
+          <t>3D Printing</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Electronics Components</t>
+          <t>Initial Prototype</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.2.1.2</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Prototype Development</t>
+          <t>Assembly</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Initial Prototype</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2.2.1</t>
+          <t>2.2.1.3</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Initial Prototype</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Prototype Development</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2.2.1.1</t>
+          <t>2.2.2</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3D Printing</t>
+          <t>Final Prototype</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Initial Prototype</t>
+          <t>Prototype Development</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2.2.1.2</t>
+          <t>2.2.2.1</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1993,19 +1993,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Assembly</t>
+          <t>Production Methods</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Initial Prototype</t>
+          <t>Final Prototype</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2.2.1.3</t>
+          <t>2.2.2.2</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2018,198 +2018,198 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>Quality Control</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Initial Prototype</t>
+          <t>Final Prototype</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2.2.2</t>
+          <t>2.2.2.3</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>Documentation</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Final Prototype</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Prototype Development</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2.2.2.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Phase</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Production Methods</t>
+          <t>Electrical Testing</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Final Prototype</t>
+          <t>SelfiePod</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2.2.2.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Quality Control</t>
+          <t>Power System</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Final Prototype</t>
+          <t>Electrical Testing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2.2.2.3</t>
+          <t>3.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Battery Performance</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Final Prototype</t>
+          <t>Power System</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Phase</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>Charge Cycles</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SelfiePod</t>
+          <t>Battery Performance</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.1.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Quality Assurance</t>
+          <t>Voltage Stability</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>Battery Performance</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3.1.1</t>
+          <t>3.1.1.1.1.1.3</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Component Testing</t>
+          <t>Temperature Profile</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Quality Assurance</t>
+          <t>Battery Performance</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3.1.1.1</t>
+          <t>3.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2218,73 +2218,73 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Electrical Testing</t>
+          <t>Circuit Validation</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Component Testing</t>
+          <t>Power System</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3.1.1.1.1</t>
+          <t>3.1.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Power System</t>
+          <t>Signal Integrity</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Electrical Testing</t>
+          <t>Circuit Validation</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3.1.1.1.1.1</t>
+          <t>3.1.1.1.1.2.2</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Battery Performance</t>
+          <t>EMI Testing</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Power System</t>
+          <t>Circuit Validation</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3.1.1.1.1.1.1</t>
+          <t>3.1.1.1.1.2.3</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2293,48 +2293,48 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Charge Cycles</t>
+          <t>Power Efficiency</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Battery Performance</t>
+          <t>Circuit Validation</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3.1.1.1.1.1.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Voltage Stability</t>
+          <t>MCU Validation</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Battery Performance</t>
+          <t>Electrical Testing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3.1.1.1.1.1.3</t>
+          <t>3.1.1.1.2.1.1</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2343,48 +2343,48 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Temperature Profile</t>
+          <t>Clock Stability</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Battery Performance</t>
+          <t>MCU Validation</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3.1.1.1.1.2</t>
+          <t>3.1.1.1.2.1.2</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Circuit Validation</t>
+          <t>Memory Tests</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Power System</t>
+          <t>MCU Validation</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3.1.1.1.1.2.1</t>
+          <t>3.1.1.1.2.1.3</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2393,73 +2393,73 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Signal Integrity</t>
+          <t>Peripheral Tests</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Circuit Validation</t>
+          <t>MCU Validation</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3.1.1.1.1.2.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Phase</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EMI Testing</t>
+          <t>Platform Strategy</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Circuit Validation</t>
+          <t>SelfiePod</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3.1.1.1.1.2.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Power Efficiency</t>
+          <t>Instagram Campaign</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Circuit Validation</t>
+          <t>Platform Strategy</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3.1.1.1.2</t>
+          <t>4.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2468,48 +2468,48 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Control System</t>
+          <t>Content Creation</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Electrical Testing</t>
+          <t>Instagram Campaign</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3.1.1.1.2.1</t>
+          <t>4.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MCU Validation</t>
+          <t>Photo Shoots</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Control System</t>
+          <t>Content Creation</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3.1.1.1.2.1.1</t>
+          <t>4.1.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2518,23 +2518,23 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Clock Stability</t>
+          <t>Video Production</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MCU Validation</t>
+          <t>Content Creation</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3.1.1.1.2.1.2</t>
+          <t>4.1.1.1.1.1.3</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2543,198 +2543,198 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Memory Tests</t>
+          <t>Story Templates</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MCU Validation</t>
+          <t>Content Creation</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3.1.1.1.2.1.3</t>
+          <t>4.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Peripheral Tests</t>
+          <t>Influencer Program</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MCU Validation</t>
+          <t>Instagram Campaign</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Phase</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Selection Criteria</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SelfiePod</t>
+          <t>Influencer Program</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.1.1.1.1.2.2</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Engagement Metrics</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Influencer Program</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4.1.1</t>
+          <t>4.1.1.1.1.2.3</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Social Media</t>
+          <t>ROI Analysis</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Influencer Program</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4.1.1.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>TikTok Strategy</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>Platform Strategy</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Social Media</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4.1.1.1.1</t>
+          <t>4.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Instagram Campaign</t>
+          <t>Trend Analysis</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Platform Strategy</t>
+          <t>TikTok Strategy</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>4.1.1.1.1.1</t>
+          <t>4.1.1.1.2.2</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Content Creation</t>
+          <t>Content Calendar</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Instagram Campaign</t>
+          <t>TikTok Strategy</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>4.1.1.1.1.1.1</t>
+          <t>4.1.1.1.2.3</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2743,73 +2743,73 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Photo Shoots</t>
+          <t>Performance Metrics</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Content Creation</t>
+          <t>TikTok Strategy</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4.1.1.1.1.1.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Phase</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Video Production</t>
+          <t>Automation Systems</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Content Creation</t>
+          <t>SelfiePod</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4.1.1.1.1.1.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Subtask</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Story Templates</t>
+          <t>Robot Integration</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Content Creation</t>
+          <t>Automation Systems</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4.1.1.1.1.2</t>
+          <t>5.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2818,23 +2818,23 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Influencer Program</t>
+          <t>End Effector Design</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Instagram Campaign</t>
+          <t>Robot Integration</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4.1.1.1.1.2.1</t>
+          <t>5.1.1.1.1.1.1</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2843,23 +2843,23 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Selection Criteria</t>
+          <t>Gripper Mechanism</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Influencer Program</t>
+          <t>End Effector Design</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>4.1.1.1.1.2.2</t>
+          <t>5.1.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2868,23 +2868,23 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Engagement Metrics</t>
+          <t>Sensor Integration</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Influencer Program</t>
+          <t>End Effector Design</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>4.1.1.1.1.2.3</t>
+          <t>5.1.1.1.1.1.3</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2893,23 +2893,23 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ROI Analysis</t>
+          <t>Control Software</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Influencer Program</t>
+          <t>End Effector Design</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>4.1.1.1.2</t>
+          <t>5.1.1.1.1.2</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2918,23 +2918,23 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>TikTok Strategy</t>
+          <t>Motion Planning</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Platform Strategy</t>
+          <t>Robot Integration</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>4.1.1.1.2.1</t>
+          <t>5.1.1.1.1.2.1</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2943,23 +2943,23 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Trend Analysis</t>
+          <t>Path Optimization</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TikTok Strategy</t>
+          <t>Motion Planning</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>4.1.1.1.2.2</t>
+          <t>5.1.1.1.1.2.2</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2968,23 +2968,23 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Content Calendar</t>
+          <t>Collision Avoidance</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TikTok Strategy</t>
+          <t>Motion Planning</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4.1.1.1.2.3</t>
+          <t>5.1.1.1.1.2.3</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2993,69 +2993,69 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Performance Metrics</t>
+          <t>Speed Control</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TikTok Strategy</t>
+          <t>Motion Planning</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Phase</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Production &amp;amp; Deployment</t>
+          <t>Camera Setup</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SelfiePod</t>
+          <t>Automation Systems</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.1.1.1.2.1.1</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Manufacturing Setup</t>
+          <t>Lighting Design</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Production &amp;amp; Deployment</t>
+          <t>Camera Setup</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5.1.1</t>
+          <t>5.1.1.1.2.1.2</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3063,390 +3063,40 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Assembly Line Design</t>
+          <t>Image Processing</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Manufacturing Setup</t>
+          <t>Camera Setup</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>5.1.1.1</t>
+          <t>5.1.1.1.2.1.3</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Subtask</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Automation Systems</t>
+          <t>Quality Checks</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
-        <is>
-          <t>Assembly Line Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>5.1.1.1.1</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>5</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Robot Integration</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Automation Systems</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>5.1.1.1.1.1</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>6</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>End Effector Design</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Robot Integration</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>5.1.1.1.1.1.1</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>7</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Subtask</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Gripper Mechanism</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>End Effector Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>5.1.1.1.1.1.2</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>7</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Subtask</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Sensor Integration</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>End Effector Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>5.1.1.1.1.1.3</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>7</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Subtask</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Control Software</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>End Effector Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>5.1.1.1.1.2</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>6</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Motion Planning</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Robot Integration</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>5.1.1.1.1.2.1</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>7</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Subtask</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Path Optimization</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Motion Planning</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>5.1.1.1.1.2.2</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>7</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Subtask</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Collision Avoidance</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Motion Planning</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>5.1.1.1.1.2.3</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>7</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Subtask</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Speed Control</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Motion Planning</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>5.1.1.1.2</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>5</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Vision System</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Automation Systems</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>5.1.1.1.2.1</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>6</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Camera Setup</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Vision System</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>5.1.1.1.2.1.1</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>7</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Subtask</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Lighting Design</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Camera Setup</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>5.1.1.1.2.1.2</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>7</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Subtask</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Image Processing</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Camera Setup</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>5.1.1.1.2.1.3</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>7</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Subtask</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Quality Checks</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
         <is>
           <t>Camera Setup</t>
         </is>
